--- a/templates/sequence-based-metadata/run_template.xlsx
+++ b/templates/sequence-based-metadata/run_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-repositories\ega-metadata-schema\templates\sequence-based-metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcasado\Documents\GitHub\ega-metadata-schema\templates\sequence-based-metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E17BCF-9439-475A-B4B8-0CAC86E217FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DAEF80-8020-4F6E-9279-71EB2A8794C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,21 +25,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
-  <si>
-    <t>Center_name</t>
-  </si>
-  <si>
-    <t>TODO: ACCOUNT CENTER_NAME ACRONYM</t>
-  </si>
-  <si>
-    <t>Run_alias</t>
-  </si>
-  <si>
-    <t>TODO: UNIQUE NAME FOR RUN</t>
-  </si>
-  <si>
-    <t>Experiment_reference</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Broker_name</t>
+  </si>
+  <si>
+    <t>Center_name*</t>
+  </si>
+  <si>
+    <t>Run_alias*</t>
+  </si>
+  <si>
+    <t>TODO: Name of the custom attribute.</t>
+  </si>
+  <si>
+    <t>TODO: Value of the custom attribute.</t>
+  </si>
+  <si>
+    <t>TODO: Optional scientific units.</t>
+  </si>
+  <si>
+    <t>Run_date</t>
+  </si>
+  <si>
+    <t>Run_center</t>
+  </si>
+  <si>
+    <t>TODO: If applicable, the name of the contract sequencing center that executed the run (e.g. 454MSC).</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>ExperimentReference_Name*</t>
+  </si>
+  <si>
+    <t>ExperimentReference_Center*</t>
+  </si>
+  <si>
+    <t>TODO: ISO date when the run took place (e.g. "2001-12-17T09:30:47Z"). If the time stamp is unknown, leave it as 0s (2008-07-02T00:00:00)</t>
   </si>
   <si>
     <t>Filename</t>
@@ -57,28 +90,193 @@
     <t>Unencrypted_checksum</t>
   </si>
   <si>
-    <t>TODO: CHOOSE FROM CONTROLLED VOCABULARY ("srf", "sff", "fastq", "cram" , "bam", "Illumina_native_qseq", "Illumina_native_scarf", "Illumina_native_fastq", "SOLiD_native_csfasta", "SOLiD_native_qual", "PacBio_HDF5", "CompleteGenomics_native")</t>
-  </si>
-  <si>
     <t>MD5</t>
   </si>
   <si>
-    <t>Run_date</t>
-  </si>
-  <si>
-    <t>TODO: ISO date when the run took place (e.g. 2008-07-02T10:30:00). If the time stamp is unknown, leave it as 0s (2008-07-02T00:00:00)</t>
-  </si>
-  <si>
-    <t>TODO: EXPERIMENT ALIAS OF RELEVANT EXPERIMENT OBJECT (Identifies the parent experiment)</t>
-  </si>
-  <si>
-    <t>TODO: FILENAME (e.g. path/to/files/file.fastq)</t>
-  </si>
-  <si>
     <t>TODO: CHECKSUM from encrypted file (e.g. 298ee70555532679d7c1f91b5dd07aef)</t>
   </si>
   <si>
     <t>TODO: CHECKSUM from unencrypted file (e.g. e609bc52c035ff1a62cdba0f0689889j)</t>
+  </si>
+  <si>
+    <t>Scoring_system</t>
+  </si>
+  <si>
+    <t>MinQuality_Ascii</t>
+  </si>
+  <si>
+    <t>TODO: The run data file model. Choose from Controlled vocabulary: 	
+	sra
+	srf
+	sff
+	fastq
+	fasta
+	tab
+	454_native
+	454_native_seq
+	454_native_qual
+	Helicos_native
+	Illumina_native
+	Illumina_native_seq
+	Illumina_native_prb
+	Illumina_native_int
+	Illumina_native_qseq
+	Illumina_native_scarf
+	SOLiD_native
+	SOLiD_native_csfasta
+	SOLiD_native_qual
+	PacBio_HDF5
+	bam
+	cram
+	CompleteGenomics_native
+	OxfordNanopore_native</t>
+  </si>
+  <si>
+    <t>Ref_Alignment.Assembly_name</t>
+  </si>
+  <si>
+    <t>Ref_Alignment.Assembly_accessionVersion</t>
+  </si>
+  <si>
+    <t>DJ0001_13</t>
+  </si>
+  <si>
+    <t>EBI-TEST</t>
+  </si>
+  <si>
+    <t>EGA</t>
+  </si>
+  <si>
+    <t>2009-07-20T23:21:00Z</t>
+  </si>
+  <si>
+    <t>Illumina Sequencing of HG3125 NBRC 101655 - random whole genome shotgun library</t>
+  </si>
+  <si>
+    <t>Experiment_NA415001</t>
+  </si>
+  <si>
+    <t>TODO: Standard genome assembly name (e.g. GRCh37). Use this column exclusively if the Run is a Reference Alignment.</t>
+  </si>
+  <si>
+    <t>TODO: Standard genome accession version (e.g. GCA_000001405.1). Use this column exclusively if the Run is a Reference Alignment.</t>
+  </si>
+  <si>
+    <t>Ref_Alignment.SequenceAccession</t>
+  </si>
+  <si>
+    <t>Ref_Alignment.SequenceLabel</t>
+  </si>
+  <si>
+    <t>CM000663.1</t>
+  </si>
+  <si>
+    <t>chr1</t>
+  </si>
+  <si>
+    <t>CM000664.1</t>
+  </si>
+  <si>
+    <t>chr2</t>
+  </si>
+  <si>
+    <t>CM000665.1</t>
+  </si>
+  <si>
+    <t>chr3</t>
+  </si>
+  <si>
+    <t>GRCh37</t>
+  </si>
+  <si>
+    <t>GCA_000001405.1</t>
+  </si>
+  <si>
+    <t>ascii</t>
+  </si>
+  <si>
+    <t>phred</t>
+  </si>
+  <si>
+    <t>e609bc52c035ff1a62cdba0f0689889j</t>
+  </si>
+  <si>
+    <t>298ee70555532679d7c1f91b5dd07aef</t>
+  </si>
+  <si>
+    <t>fastq</t>
+  </si>
+  <si>
+    <t>Ascii_offset</t>
+  </si>
+  <si>
+    <t>cram</t>
+  </si>
+  <si>
+    <t>runs/DJ0001_13/DJ0001_13.cram</t>
+  </si>
+  <si>
+    <t>runs/DJ0001_13/DJ0001_13.fastq</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>TODO: The name or relative pathname of a run data file (e.g. path/to/files/file.fastq)
+If several files are provided, repeat the block "Filename" - "Filetype" - "Checksum_method" - "Encrypted_checksum" - "Unencrypted_checksum" - "Scoring_system" - "MinQuality_Ascii" - "Ascii_offset"</t>
+  </si>
+  <si>
+    <t>9ddd9749fdc4118a2c614140cea6c7c3</t>
+  </si>
+  <si>
+    <t>f41fe7015c662b3b305346a1ca04c2cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO:Accession of the sequence for the reference alignment in format "Accession.version", with version being mandatory (e.g. CM000663.1). Use this column exclusively if the Run is a Reference Alignment.
+In case you want to provide several sequence details, repeat the block "Ref_Alignment.SequenceAccession" - "Ref_Alignment.SequenceLabel" as many times as needed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO:  This is how Reference Sequence is labeled in submission file(s) (e.g. chr1). It is equivalent to the @SQ label in a BAM file (optional when submitted file uses INSDC accession.version). Use this column exclusively if the Run is a Reference Alignment.
+In case you want to provide several sequence details, repeat the block "Ref_Alignment.SequenceAccession" - "Ref_Alignment.SequenceLabel" as many times as needed. </t>
+  </si>
+  <si>
+    <t>flowcell_barcode</t>
+  </si>
+  <si>
+    <t>C3JV3ACXY</t>
+  </si>
+  <si>
+    <t>product_order</t>
+  </si>
+  <si>
+    <t>PDO-2711991-X</t>
+  </si>
+  <si>
+    <t>TODO: The center name (its acronym) of the submitter's account (e.g. EBI-TEST)</t>
+  </si>
+  <si>
+    <t>TODO: The center name (its acronym) of the broker (e.g. EGA)</t>
+  </si>
+  <si>
+    <t>TODO: Submitter designated name for the "Run" (e.g. 'Run_DJ0001_13'). The name must be unique within the submission account.</t>
+  </si>
+  <si>
+    <t>TODO: Short free-form text that can be used to define submissions in searches or in displays.</t>
+  </si>
+  <si>
+    <t>TODO: Name (string) that identifies the parent experiment (that encompasses this run) within the namespace defined by attribute "ExperimentReference_Center".</t>
+  </si>
+  <si>
+    <t>TODO: Acronym of the center name used to submit the referenced experiment (e.g. EBI-TEST).</t>
+  </si>
+  <si>
+    <t>TODO: How the input data are scored for quality (either 'phred' or 'log-odds').</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: Character used in representing the minimum quality value (choose from 'ascii', 'decimal' or 'hexadecimal'). Helps specify how to decode text rendering of quality data. </t>
+  </si>
+  <si>
+    <t>TODO: Character used in representing the minimum quality value (e.g. '!' or '@').  Helps specify how to decode text rendering of quality data.</t>
   </si>
 </sst>
 </file>
@@ -94,24 +292,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -121,14 +307,59 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCDACE6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9EDF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2CFF1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -138,18 +369,127 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE2CFF1"/>
+      <color rgb="FFCDACE6"/>
+      <color rgb="FFE9EDF7"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -424,124 +764,408 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:AL3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="2" customWidth="1"/>
+    <col min="9" max="10" width="15.5703125" style="18" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="16" customWidth="1"/>
+    <col min="12" max="13" width="8.7109375" style="5" customWidth="1"/>
+    <col min="14" max="16" width="8.7109375" style="12" customWidth="1"/>
+    <col min="17" max="18" width="15.5703125" style="18" customWidth="1"/>
+    <col min="19" max="20" width="15.5703125" style="2" customWidth="1"/>
+    <col min="21" max="22" width="15.5703125" style="18" customWidth="1"/>
+    <col min="23" max="29" width="8.7109375" style="23" customWidth="1"/>
+    <col min="30" max="30" width="9.140625" style="25"/>
+    <col min="31" max="37" width="8.7109375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="N1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="O1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="M2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="N2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>9</v>
+      <c r="Q2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y2" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB2" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC2" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD2" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK2" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>17</v>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="W3" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y3" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z3" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA3" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB3" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC3" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD3" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL3" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:H1 L1:M1 W1:AD1 AM1:XFD1 Q1:R1">
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:T1">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",S1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:V1">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",U1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:J1">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",I1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE1:AL1">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",AE1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:P1">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",O1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/templates/sequence-based-metadata/run_template.xlsx
+++ b/templates/sequence-based-metadata/run_template.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcasado\Documents\GitHub\ega-metadata-schema\templates\sequence-based-metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DAEF80-8020-4F6E-9279-71EB2A8794C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99900AE-37B2-4FCE-98E7-7182F0B32EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="73">
   <si>
     <t>Tag</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>ExperimentReference_Name*</t>
-  </si>
-  <si>
-    <t>ExperimentReference_Center*</t>
   </si>
   <si>
     <t>TODO: ISO date when the run took place (e.g. "2001-12-17T09:30:47Z"). If the time stamp is unknown, leave it as 0s (2008-07-02T00:00:00)</t>
@@ -265,9 +262,6 @@
   </si>
   <si>
     <t>TODO: Name (string) that identifies the parent experiment (that encompasses this run) within the namespace defined by attribute "ExperimentReference_Center".</t>
-  </si>
-  <si>
-    <t>TODO: Acronym of the center name used to submit the referenced experiment (e.g. EBI-TEST).</t>
   </si>
   <si>
     <t>TODO: How the input data are scored for quality (either 'phred' or 'log-odds').</t>
@@ -369,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -385,9 +379,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -764,11 +755,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL3"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,20 +771,19 @@
     <col min="5" max="5" width="20.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="2" customWidth="1"/>
-    <col min="9" max="10" width="15.5703125" style="18" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="16" customWidth="1"/>
-    <col min="12" max="13" width="8.7109375" style="5" customWidth="1"/>
-    <col min="14" max="16" width="8.7109375" style="12" customWidth="1"/>
-    <col min="17" max="18" width="15.5703125" style="18" customWidth="1"/>
-    <col min="19" max="20" width="15.5703125" style="2" customWidth="1"/>
-    <col min="21" max="22" width="15.5703125" style="18" customWidth="1"/>
-    <col min="23" max="29" width="8.7109375" style="23" customWidth="1"/>
-    <col min="30" max="30" width="9.140625" style="25"/>
-    <col min="31" max="37" width="8.7109375" style="12" customWidth="1"/>
+    <col min="8" max="9" width="15.5703125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="15" customWidth="1"/>
+    <col min="11" max="12" width="8.7109375" style="5" customWidth="1"/>
+    <col min="13" max="15" width="8.7109375" style="11" customWidth="1"/>
+    <col min="16" max="17" width="15.5703125" style="17" customWidth="1"/>
+    <col min="18" max="19" width="15.5703125" style="2" customWidth="1"/>
+    <col min="20" max="21" width="15.5703125" style="17" customWidth="1"/>
+    <col min="22" max="28" width="8.7109375" style="22" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" style="24"/>
+    <col min="30" max="36" width="8.7109375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -815,355 +805,346 @@
       <c r="G1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK1" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="T1" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="U1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="V1" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD1" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL1" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>71</v>
+      <c r="H2" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="I2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="M2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="O2" s="11" t="s">
         <v>8</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="Q2" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="R2" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2" s="14" t="s">
+      <c r="R2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="T2" s="21" t="s">
-        <v>61</v>
+      <c r="T2" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="U2" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="V2" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y2" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z2" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA2" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="W2" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="X2" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y2" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z2" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA2" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB2" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC2" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD2" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE2" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF2" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ2" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK2" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q3" s="18" t="s">
+      <c r="P3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="U3" s="18" t="s">
+      <c r="U3" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="V3" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="W3" s="23" t="s">
+      <c r="V3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="W3" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="X3" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA3" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB3" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC3" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD3" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="X3" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y3" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z3" s="23" t="s">
+      <c r="AE3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AA3" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB3" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC3" s="23" t="s">
+      <c r="AF3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AD3" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE3" s="12" t="s">
+      <c r="AJ3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK3" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="AF3" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH3" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK3" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL3" s="12" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:H1 L1:M1 W1:AD1 AM1:XFD1 Q1:R1">
+  <conditionalFormatting sqref="A1:G1 K1:L1 V1:AC1 AL1:XFD1 P1:Q1">
     <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:T1">
+  <conditionalFormatting sqref="R1:S1">
     <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",S1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("~*",R1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:V1">
+  <conditionalFormatting sqref="T1:U1">
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",U1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("~*",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:J1">
+  <conditionalFormatting sqref="H1:I1">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",I1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("~*",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AL1">
+  <conditionalFormatting sqref="AD1:AK1">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",AE1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("~*",AD1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:P1">
+  <conditionalFormatting sqref="N1:O1">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",O1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("~*",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/sequence-based-metadata/run_template.xlsx
+++ b/templates/sequence-based-metadata/run_template.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcasado\Documents\GitHub\ega-metadata-schema\templates\sequence-based-metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99900AE-37B2-4FCE-98E7-7182F0B32EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD86834D-87C3-4854-B348-BE414D58D6DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Run Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Readme" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="93">
   <si>
     <t>Tag</t>
   </si>
@@ -69,9 +70,6 @@
     <t>ExperimentReference_Name*</t>
   </si>
   <si>
-    <t>TODO: ISO date when the run took place (e.g. "2001-12-17T09:30:47Z"). If the time stamp is unknown, leave it as 0s (2008-07-02T00:00:00)</t>
-  </si>
-  <si>
     <t>Filename</t>
   </si>
   <si>
@@ -102,7 +100,139 @@
     <t>MinQuality_Ascii</t>
   </si>
   <si>
-    <t>TODO: The run data file model. Choose from Controlled vocabulary: 	
+    <t>Ref_Alignment.Assembly_name</t>
+  </si>
+  <si>
+    <t>Ref_Alignment.Assembly_accessionVersion</t>
+  </si>
+  <si>
+    <t>EBI-TEST</t>
+  </si>
+  <si>
+    <t>EGA</t>
+  </si>
+  <si>
+    <t>2009-07-20T23:21:00Z</t>
+  </si>
+  <si>
+    <t>Experiment_NA415001</t>
+  </si>
+  <si>
+    <t>TODO: Standard genome assembly name (e.g. GRCh37). Use this column exclusively if the Run is a Reference Alignment.</t>
+  </si>
+  <si>
+    <t>TODO: Standard genome accession version (e.g. GCA_000001405.1). Use this column exclusively if the Run is a Reference Alignment.</t>
+  </si>
+  <si>
+    <t>Ref_Alignment.SequenceAccession</t>
+  </si>
+  <si>
+    <t>Ref_Alignment.SequenceLabel</t>
+  </si>
+  <si>
+    <t>CM000663.1</t>
+  </si>
+  <si>
+    <t>chr1</t>
+  </si>
+  <si>
+    <t>CM000664.1</t>
+  </si>
+  <si>
+    <t>chr2</t>
+  </si>
+  <si>
+    <t>CM000665.1</t>
+  </si>
+  <si>
+    <t>chr3</t>
+  </si>
+  <si>
+    <t>GRCh37</t>
+  </si>
+  <si>
+    <t>GCA_000001405.1</t>
+  </si>
+  <si>
+    <t>ascii</t>
+  </si>
+  <si>
+    <t>phred</t>
+  </si>
+  <si>
+    <t>e609bc52c035ff1a62cdba0f0689889j</t>
+  </si>
+  <si>
+    <t>298ee70555532679d7c1f91b5dd07aef</t>
+  </si>
+  <si>
+    <t>fastq</t>
+  </si>
+  <si>
+    <t>Ascii_offset</t>
+  </si>
+  <si>
+    <t>cram</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>9ddd9749fdc4118a2c614140cea6c7c3</t>
+  </si>
+  <si>
+    <t>f41fe7015c662b3b305346a1ca04c2cc</t>
+  </si>
+  <si>
+    <t>flowcell_barcode</t>
+  </si>
+  <si>
+    <t>C3JV3ACXY</t>
+  </si>
+  <si>
+    <t>product_order</t>
+  </si>
+  <si>
+    <t>PDO-2711991-X</t>
+  </si>
+  <si>
+    <t>TODO: The center name (its acronym) of the submitter's account (e.g. EBI-TEST)</t>
+  </si>
+  <si>
+    <t>TODO: The center name (its acronym) of the broker (e.g. EGA)</t>
+  </si>
+  <si>
+    <t>TODO: Short free-form text that can be used to define submissions in searches or in displays.</t>
+  </si>
+  <si>
+    <t>TODO: How the input data are scored for quality (either 'phred' or 'log-odds').</t>
+  </si>
+  <si>
+    <t>TODO: Character used in representing the minimum quality value (e.g. '!' or '@').  Helps specify how to decode text rendering of quality data.</t>
+  </si>
+  <si>
+    <t>TODO: Submitter designated name for the 'Run' (e.g. 'Run_DJ0001_13'). The name must be unique within the submission account.</t>
+  </si>
+  <si>
+    <t>TODO: ISO date when the run took place (e.g. '2001-12-17T09:30:47Z'). If the time stamp is unknown, leave it as 0s (2008-07-02T00:00:00)</t>
+  </si>
+  <si>
+    <t>TODO: Name (string) that identifies the parent experiment (that encompasses this run) within the namespace defined by attribute 'ExperimentReference_Center'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO:Accession of the sequence for the reference alignment in format 'Accession.version', with version being mandatory (e.g. CM000663.1). Use this column exclusively if the Run is a Reference Alignment.
+In case you want to provide several sequence details, repeat the block 'Ref_Alignment.SequenceAccession' - 'Ref_Alignment.SequenceLabel' as many times as needed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO:  This is how Reference Sequence is labeled in submission file(s) (e.g. chr1). It is equivalent to the @SQ label in a BAM file (optional when submitted file uses INSDC accession.version). Use this column exclusively if the Run is a Reference Alignment.
+In case you want to provide several sequence details, repeat the block 'Ref_Alignment.SequenceAccession' - 'Ref_Alignment.SequenceLabel' as many times as needed. </t>
+  </si>
+  <si>
+    <t>TODO: The name or relative pathname of a run data file (e.g. path/to/files/file.fastq)
+If several files are provided, repeat the block 'Filename' - 'Filetype' - 'Checksum_method' - 'Encrypted_checksum' - 'Unencrypted_checksum' - 'Scoring_system' - 'MinQuality_Ascii' - 'Ascii_offset'</t>
+  </si>
+  <si>
+    <t>TODO: The run data file model. Must be value from Controlled vocabulary: 	
 	sra
 	srf
 	sff
@@ -129,155 +259,126 @@
 	OxfordNanopore_native</t>
   </si>
   <si>
-    <t>Ref_Alignment.Assembly_name</t>
-  </si>
-  <si>
-    <t>Ref_Alignment.Assembly_accessionVersion</t>
-  </si>
-  <si>
-    <t>DJ0001_13</t>
-  </si>
-  <si>
-    <t>EBI-TEST</t>
-  </si>
-  <si>
-    <t>EGA</t>
-  </si>
-  <si>
-    <t>2009-07-20T23:21:00Z</t>
-  </si>
-  <si>
-    <t>Illumina Sequencing of HG3125 NBRC 101655 - random whole genome shotgun library</t>
-  </si>
-  <si>
-    <t>Experiment_NA415001</t>
-  </si>
-  <si>
-    <t>TODO: Standard genome assembly name (e.g. GRCh37). Use this column exclusively if the Run is a Reference Alignment.</t>
-  </si>
-  <si>
-    <t>TODO: Standard genome accession version (e.g. GCA_000001405.1). Use this column exclusively if the Run is a Reference Alignment.</t>
-  </si>
-  <si>
-    <t>Ref_Alignment.SequenceAccession</t>
-  </si>
-  <si>
-    <t>Ref_Alignment.SequenceLabel</t>
-  </si>
-  <si>
-    <t>CM000663.1</t>
-  </si>
-  <si>
-    <t>chr1</t>
-  </si>
-  <si>
-    <t>CM000664.1</t>
-  </si>
-  <si>
-    <t>chr2</t>
-  </si>
-  <si>
-    <t>CM000665.1</t>
-  </si>
-  <si>
-    <t>chr3</t>
-  </si>
-  <si>
-    <t>GRCh37</t>
-  </si>
-  <si>
-    <t>GCA_000001405.1</t>
-  </si>
-  <si>
-    <t>ascii</t>
-  </si>
-  <si>
-    <t>phred</t>
-  </si>
-  <si>
-    <t>e609bc52c035ff1a62cdba0f0689889j</t>
-  </si>
-  <si>
-    <t>298ee70555532679d7c1f91b5dd07aef</t>
-  </si>
-  <si>
-    <t>fastq</t>
-  </si>
-  <si>
-    <t>Ascii_offset</t>
-  </si>
-  <si>
-    <t>cram</t>
-  </si>
-  <si>
-    <t>runs/DJ0001_13/DJ0001_13.cram</t>
-  </si>
-  <si>
-    <t>runs/DJ0001_13/DJ0001_13.fastq</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>TODO: The name or relative pathname of a run data file (e.g. path/to/files/file.fastq)
-If several files are provided, repeat the block "Filename" - "Filetype" - "Checksum_method" - "Encrypted_checksum" - "Unencrypted_checksum" - "Scoring_system" - "MinQuality_Ascii" - "Ascii_offset"</t>
-  </si>
-  <si>
-    <t>9ddd9749fdc4118a2c614140cea6c7c3</t>
-  </si>
-  <si>
-    <t>f41fe7015c662b3b305346a1ca04c2cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO:Accession of the sequence for the reference alignment in format "Accession.version", with version being mandatory (e.g. CM000663.1). Use this column exclusively if the Run is a Reference Alignment.
-In case you want to provide several sequence details, repeat the block "Ref_Alignment.SequenceAccession" - "Ref_Alignment.SequenceLabel" as many times as needed. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO:  This is how Reference Sequence is labeled in submission file(s) (e.g. chr1). It is equivalent to the @SQ label in a BAM file (optional when submitted file uses INSDC accession.version). Use this column exclusively if the Run is a Reference Alignment.
-In case you want to provide several sequence details, repeat the block "Ref_Alignment.SequenceAccession" - "Ref_Alignment.SequenceLabel" as many times as needed. </t>
-  </si>
-  <si>
-    <t>flowcell_barcode</t>
-  </si>
-  <si>
-    <t>C3JV3ACXY</t>
-  </si>
-  <si>
-    <t>product_order</t>
-  </si>
-  <si>
-    <t>PDO-2711991-X</t>
-  </si>
-  <si>
-    <t>TODO: The center name (its acronym) of the submitter's account (e.g. EBI-TEST)</t>
-  </si>
-  <si>
-    <t>TODO: The center name (its acronym) of the broker (e.g. EGA)</t>
-  </si>
-  <si>
-    <t>TODO: Submitter designated name for the "Run" (e.g. 'Run_DJ0001_13'). The name must be unique within the submission account.</t>
-  </si>
-  <si>
-    <t>TODO: Short free-form text that can be used to define submissions in searches or in displays.</t>
-  </si>
-  <si>
-    <t>TODO: Name (string) that identifies the parent experiment (that encompasses this run) within the namespace defined by attribute "ExperimentReference_Center".</t>
-  </si>
-  <si>
-    <t>TODO: How the input data are scored for quality (either 'phred' or 'log-odds').</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO: Character used in representing the minimum quality value (choose from 'ascii', 'decimal' or 'hexadecimal'). Helps specify how to decode text rendering of quality data. </t>
-  </si>
-  <si>
-    <t>TODO: Character used in representing the minimum quality value (e.g. '!' or '@').  Helps specify how to decode text rendering of quality data.</t>
+    <t xml:space="preserve">TODO: Character used in representing the minimum quality value. Must be value from Controlled vocabulary: 'ascii', 'decimal' or 'hexadecimal'. Helps specify how to decode text rendering of quality data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: Character used in representing the minimum quality value. Must be value from Controlled vocabulary'ascii', 'decimal' or 'hexadecimal'. Helps specify how to decode text rendering of quality data. </t>
+  </si>
+  <si>
+    <t>Example_DJ0001_14.cram</t>
+  </si>
+  <si>
+    <t>Example_DJ0001_13.cram</t>
+  </si>
+  <si>
+    <t>Example!_DJ0001_13</t>
+  </si>
+  <si>
+    <t>Example!_Illumina Sequencing of HG3125 NBRC 101655 - random whole genome shotgun library</t>
+  </si>
+  <si>
+    <t>Provide your real metadata below this row (each row under this one will account for one metadata instance)</t>
+  </si>
+  <si>
+    <t>Rows format</t>
+  </si>
+  <si>
+    <t>Row number</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Column headers</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Descriptive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> row (explains what type of data corresponds to each column)</t>
+    </r>
+  </si>
+  <si>
+    <t>Real data ceiling (put your real data beneath this row)</t>
+  </si>
+  <si>
+    <t>4 onwards</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Real data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (all rows from 4 onwards will be transformed into XMLs)</t>
+    </r>
+  </si>
+  <si>
+    <t>Column headers' colour format</t>
+  </si>
+  <si>
+    <t>Colour</t>
+  </si>
+  <si>
+    <t>Bright yellow</t>
+  </si>
+  <si>
+    <t>Required attributes</t>
+  </si>
+  <si>
+    <t>No colour</t>
+  </si>
+  <si>
+    <t>Optional (highly recommended) attributes</t>
+  </si>
+  <si>
+    <t>Dark grey</t>
+  </si>
+  <si>
+    <t>Ignore this column (based on multiple choice attributes)</t>
+  </si>
+  <si>
+    <t>Other colours</t>
+  </si>
+  <si>
+    <t>Repeated blocks (each with their own colour): you can add or remove as many "whole" blocks as you want to fulfil your needs, but remember to always work with complete repetitions (e.g. TAG-VALUE-UNITS columns for an attribute)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,8 +386,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,8 +465,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -359,11 +513,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -407,6 +609,48 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,11 +999,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK3"/>
+  <dimension ref="A1:AK4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,10 +1050,10 @@
         <v>13</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>0</v>
@@ -830,99 +1074,99 @@
         <v>2</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="R1" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="T1" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="U1" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="V1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Z1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="12" t="s">
-        <v>19</v>
-      </c>
       <c r="AA1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="12" t="s">
-        <v>24</v>
-      </c>
       <c r="AC1" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AD1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AF1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AG1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AH1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="AH1" s="12" t="s">
-        <v>19</v>
-      </c>
       <c r="AI1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AJ1" s="12" t="s">
-        <v>24</v>
-      </c>
       <c r="AK1" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J2" s="15" t="s">
         <v>6</v>
@@ -943,177 +1187,184 @@
         <v>8</v>
       </c>
       <c r="P2" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="U2" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="V2" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="W2" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="X2" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA2" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="AB2" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC2" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="AD2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="AJ2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK2" t="s">
         <v>60</v>
       </c>
-      <c r="T2" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="U2" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="V2" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="W2" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="X2" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y2" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z2" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA2" s="22" t="s">
+    </row>
+    <row r="3" spans="1:37" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="27"/>
+      <c r="R3" s="28"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="W4" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="X4" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y4" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB4" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC4" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD4" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AB2" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC2" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD2" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI2" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ2" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="T3" s="17" t="s">
+      <c r="AE4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="U3" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="V3" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="W3" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="X3" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y3" s="22" t="s">
+      <c r="AK4" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="Z3" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA3" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB3" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC3" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD3" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE3" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG3" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH3" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI3" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK3" s="11" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1150,4 +1401,121 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7496BB8B-87E6-472C-B92C-9113B5F6BDA6}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="38"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="38"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/templates/sequence-based-metadata/run_template.xlsx
+++ b/templates/sequence-based-metadata/run_template.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub-repositories\ega-metadata-schema\templates\sequence-based-metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcasado\Documents\GitHub\ega-metadata-schema\templates\sequence-based-metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E17BCF-9439-475A-B4B8-0CAC86E217FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E27A30-DF0A-434F-BF07-6B348D0A3B4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="run" sheetId="1" r:id="rId1"/>
+    <sheet name="Readme" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,21 +26,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
-  <si>
-    <t>Center_name</t>
-  </si>
-  <si>
-    <t>TODO: ACCOUNT CENTER_NAME ACRONYM</t>
-  </si>
-  <si>
-    <t>Run_alias</t>
-  </si>
-  <si>
-    <t>TODO: UNIQUE NAME FOR RUN</t>
-  </si>
-  <si>
-    <t>Experiment_reference</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="93">
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Broker_name</t>
+  </si>
+  <si>
+    <t>Center_name*</t>
+  </si>
+  <si>
+    <t>Run_alias*</t>
+  </si>
+  <si>
+    <t>TODO: Name of the custom attribute.</t>
+  </si>
+  <si>
+    <t>TODO: Value of the custom attribute.</t>
+  </si>
+  <si>
+    <t>TODO: Optional scientific units.</t>
+  </si>
+  <si>
+    <t>Run_date</t>
+  </si>
+  <si>
+    <t>Run_center</t>
+  </si>
+  <si>
+    <t>TODO: If applicable, the name of the contract sequencing center that executed the run (e.g. 454MSC).</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>ExperimentReference_Name*</t>
   </si>
   <si>
     <t>Filename</t>
@@ -57,35 +85,300 @@
     <t>Unencrypted_checksum</t>
   </si>
   <si>
-    <t>TODO: CHOOSE FROM CONTROLLED VOCABULARY ("srf", "sff", "fastq", "cram" , "bam", "Illumina_native_qseq", "Illumina_native_scarf", "Illumina_native_fastq", "SOLiD_native_csfasta", "SOLiD_native_qual", "PacBio_HDF5", "CompleteGenomics_native")</t>
-  </si>
-  <si>
     <t>MD5</t>
   </si>
   <si>
-    <t>Run_date</t>
-  </si>
-  <si>
-    <t>TODO: ISO date when the run took place (e.g. 2008-07-02T10:30:00). If the time stamp is unknown, leave it as 0s (2008-07-02T00:00:00)</t>
-  </si>
-  <si>
-    <t>TODO: EXPERIMENT ALIAS OF RELEVANT EXPERIMENT OBJECT (Identifies the parent experiment)</t>
-  </si>
-  <si>
-    <t>TODO: FILENAME (e.g. path/to/files/file.fastq)</t>
-  </si>
-  <si>
     <t>TODO: CHECKSUM from encrypted file (e.g. 298ee70555532679d7c1f91b5dd07aef)</t>
   </si>
   <si>
     <t>TODO: CHECKSUM from unencrypted file (e.g. e609bc52c035ff1a62cdba0f0689889j)</t>
+  </si>
+  <si>
+    <t>Scoring_system</t>
+  </si>
+  <si>
+    <t>MinQuality_Ascii</t>
+  </si>
+  <si>
+    <t>EBI-TEST</t>
+  </si>
+  <si>
+    <t>EGA</t>
+  </si>
+  <si>
+    <t>2009-07-20T23:21:00Z</t>
+  </si>
+  <si>
+    <t>Experiment_NA415001</t>
+  </si>
+  <si>
+    <t>TODO: Standard genome assembly name (e.g. GRCh37). Use this column exclusively if the Run is a Reference Alignment.</t>
+  </si>
+  <si>
+    <t>TODO: Standard genome accession version (e.g. GCA_000001405.1). Use this column exclusively if the Run is a Reference Alignment.</t>
+  </si>
+  <si>
+    <t>CM000663.1</t>
+  </si>
+  <si>
+    <t>chr1</t>
+  </si>
+  <si>
+    <t>CM000664.1</t>
+  </si>
+  <si>
+    <t>chr2</t>
+  </si>
+  <si>
+    <t>CM000665.1</t>
+  </si>
+  <si>
+    <t>chr3</t>
+  </si>
+  <si>
+    <t>GRCh37</t>
+  </si>
+  <si>
+    <t>GCA_000001405.1</t>
+  </si>
+  <si>
+    <t>ascii</t>
+  </si>
+  <si>
+    <t>phred</t>
+  </si>
+  <si>
+    <t>e609bc52c035ff1a62cdba0f0689889j</t>
+  </si>
+  <si>
+    <t>298ee70555532679d7c1f91b5dd07aef</t>
+  </si>
+  <si>
+    <t>fastq</t>
+  </si>
+  <si>
+    <t>Ascii_offset</t>
+  </si>
+  <si>
+    <t>cram</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>9ddd9749fdc4118a2c614140cea6c7c3</t>
+  </si>
+  <si>
+    <t>f41fe7015c662b3b305346a1ca04c2cc</t>
+  </si>
+  <si>
+    <t>flowcell_barcode</t>
+  </si>
+  <si>
+    <t>C3JV3ACXY</t>
+  </si>
+  <si>
+    <t>product_order</t>
+  </si>
+  <si>
+    <t>PDO-2711991-X</t>
+  </si>
+  <si>
+    <t>TODO: The center name (its acronym) of the submitter's account (e.g. EBI-TEST)</t>
+  </si>
+  <si>
+    <t>TODO: The center name (its acronym) of the broker (e.g. EGA)</t>
+  </si>
+  <si>
+    <t>TODO: Short free-form text that can be used to define submissions in searches or in displays.</t>
+  </si>
+  <si>
+    <t>TODO: How the input data are scored for quality (either 'phred' or 'log-odds').</t>
+  </si>
+  <si>
+    <t>TODO: Character used in representing the minimum quality value (e.g. '!' or '@').  Helps specify how to decode text rendering of quality data.</t>
+  </si>
+  <si>
+    <t>TODO: Submitter designated name for the 'Run' (e.g. 'Run_DJ0001_13'). The name must be unique within the submission account.</t>
+  </si>
+  <si>
+    <t>TODO: ISO date when the run took place (e.g. '2001-12-17T09:30:47Z'). If the time stamp is unknown, leave it as 0s (2008-07-02T00:00:00)</t>
+  </si>
+  <si>
+    <t>TODO: Name (string) that identifies the parent experiment (that encompasses this run) within the namespace defined by attribute 'ExperimentReference_Center'.</t>
+  </si>
+  <si>
+    <t>TODO: The name or relative pathname of a run data file (e.g. path/to/files/file.fastq)
+If several files are provided, repeat the block 'Filename' - 'Filetype' - 'Checksum_method' - 'Encrypted_checksum' - 'Unencrypted_checksum' - 'Scoring_system' - 'MinQuality_Ascii' - 'Ascii_offset'</t>
+  </si>
+  <si>
+    <t>TODO: The run data file model. Must be value from Controlled vocabulary: 	
+	sra
+	srf
+	sff
+	fastq
+	fasta
+	tab
+	454_native
+	454_native_seq
+	454_native_qual
+	Helicos_native
+	Illumina_native
+	Illumina_native_seq
+	Illumina_native_prb
+	Illumina_native_int
+	Illumina_native_qseq
+	Illumina_native_scarf
+	SOLiD_native
+	SOLiD_native_csfasta
+	SOLiD_native_qual
+	PacBio_HDF5
+	bam
+	cram
+	CompleteGenomics_native
+	OxfordNanopore_native</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: Character used in representing the minimum quality value. Must be value from Controlled vocabulary: 'ascii', 'decimal' or 'hexadecimal'. Helps specify how to decode text rendering of quality data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: Character used in representing the minimum quality value. Must be value from Controlled vocabulary'ascii', 'decimal' or 'hexadecimal'. Helps specify how to decode text rendering of quality data. </t>
+  </si>
+  <si>
+    <t>Example_DJ0001_14.cram</t>
+  </si>
+  <si>
+    <t>Example_DJ0001_13.cram</t>
+  </si>
+  <si>
+    <t>Example!_DJ0001_13</t>
+  </si>
+  <si>
+    <t>Example!_Illumina Sequencing of HG3125 NBRC 101655 - random whole genome shotgun library</t>
+  </si>
+  <si>
+    <t>Provide your real metadata below this row (each row under this one will account for one metadata instance)</t>
+  </si>
+  <si>
+    <t>Rows format</t>
+  </si>
+  <si>
+    <t>Row number</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Column headers</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Descriptive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> row (explains what type of data corresponds to each column)</t>
+    </r>
+  </si>
+  <si>
+    <t>Real data ceiling (put your real data beneath this row)</t>
+  </si>
+  <si>
+    <t>4 onwards</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Real data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (all rows from 4 onwards will be transformed into XMLs)</t>
+    </r>
+  </si>
+  <si>
+    <t>Column headers' colour format</t>
+  </si>
+  <si>
+    <t>Colour</t>
+  </si>
+  <si>
+    <t>Bright yellow</t>
+  </si>
+  <si>
+    <t>Required attributes</t>
+  </si>
+  <si>
+    <t>No colour</t>
+  </si>
+  <si>
+    <t>Optional (highly recommended) attributes</t>
+  </si>
+  <si>
+    <t>Dark grey</t>
+  </si>
+  <si>
+    <t>Ignore this column (based on multiple choice attributes)</t>
+  </si>
+  <si>
+    <t>Other colours</t>
+  </si>
+  <si>
+    <t>Repeated blocks (each with their own colour): you can add or remove as many "whole" blocks as you want to fulfil your needs, but remember to always work with complete repetitions (e.g. TAG-VALUE-UNITS columns for an attribute)</t>
+  </si>
+  <si>
+    <t>Assembly_name</t>
+  </si>
+  <si>
+    <t>Assembly_accessionVersion</t>
+  </si>
+  <si>
+    <t>SEQUENCE.Accession</t>
+  </si>
+  <si>
+    <t>SEQUENCE.Label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO:Accession of the sequence for the reference alignment in format 'Accession.version', with version being mandatory (e.g. CM000663.1). Use this column exclusively if the Run is a Reference Alignment.
+In case you want to provide several sequence details, repeat the block 'SEQUENCE.Accession' - 'SEQUENCE.Label' as many times as needed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO:  This is how Reference Sequence is labeled in submission file(s) (e.g. chr1). It is equivalent to the @SQ label in a BAM file (optional when submitted file uses INSDC accession.version). Use this column exclusively if the Run is a Reference Alignment.
+In case you want to provide several sequence details, repeat the block 'SEQUENCE.Accession' - 'SEQUENCE.Label' as many times as needed. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,8 +386,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,32 +419,131 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor rgb="FFCDACE6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9EDF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2CFF1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -138,18 +553,158 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE2CFF1"/>
+      <color rgb="FFCDACE6"/>
+      <color rgb="FFE9EDF7"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -424,125 +979,523 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:AK4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="15.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="10" customWidth="1"/>
+    <col min="11" max="12" width="8.7109375" style="3" customWidth="1"/>
+    <col min="13" max="15" width="8.7109375" style="6" customWidth="1"/>
+    <col min="16" max="17" width="15.5703125" style="12" customWidth="1"/>
+    <col min="18" max="19" width="15.5703125" style="1" customWidth="1"/>
+    <col min="20" max="21" width="15.5703125" style="12" customWidth="1"/>
+    <col min="22" max="28" width="8.7109375" style="16" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" style="18"/>
+    <col min="30" max="36" width="8.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="M1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="N1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="M2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>9</v>
+      <c r="P2" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA2" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB2" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC2" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>17</v>
+    <row r="3" spans="1:37" s="20" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="21"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="V4" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="W4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="X4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y4" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK4" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:G1 K1:L1 V1:AC1 AL1:XFD1 P1:Q1">
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:S1">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",R1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:U1">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",T1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:I1">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",H1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD1:AK1">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",AD1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:O1">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",N1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7496BB8B-87E6-472C-B92C-9113B5F6BDA6}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="34"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="34"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/templates/sequence-based-metadata/run_template.xlsx
+++ b/templates/sequence-based-metadata/run_template.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcasado\Documents\GitHub\ega-metadata-schema\templates\sequence-based-metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD86834D-87C3-4854-B348-BE414D58D6DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B18176-B176-440C-9D4C-C3323197EAFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Run Data" sheetId="1" r:id="rId1"/>
+    <sheet name="run" sheetId="1" r:id="rId1"/>
     <sheet name="Readme" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="95">
   <si>
     <t>Tag</t>
   </si>
@@ -100,12 +100,6 @@
     <t>MinQuality_Ascii</t>
   </si>
   <si>
-    <t>Ref_Alignment.Assembly_name</t>
-  </si>
-  <si>
-    <t>Ref_Alignment.Assembly_accessionVersion</t>
-  </si>
-  <si>
     <t>EBI-TEST</t>
   </si>
   <si>
@@ -124,12 +118,6 @@
     <t>TODO: Standard genome accession version (e.g. GCA_000001405.1). Use this column exclusively if the Run is a Reference Alignment.</t>
   </si>
   <si>
-    <t>Ref_Alignment.SequenceAccession</t>
-  </si>
-  <si>
-    <t>Ref_Alignment.SequenceLabel</t>
-  </si>
-  <si>
     <t>CM000663.1</t>
   </si>
   <si>
@@ -218,14 +206,6 @@
   </si>
   <si>
     <t>TODO: Name (string) that identifies the parent experiment (that encompasses this run) within the namespace defined by attribute 'ExperimentReference_Center'.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO:Accession of the sequence for the reference alignment in format 'Accession.version', with version being mandatory (e.g. CM000663.1). Use this column exclusively if the Run is a Reference Alignment.
-In case you want to provide several sequence details, repeat the block 'Ref_Alignment.SequenceAccession' - 'Ref_Alignment.SequenceLabel' as many times as needed. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO:  This is how Reference Sequence is labeled in submission file(s) (e.g. chr1). It is equivalent to the @SQ label in a BAM file (optional when submitted file uses INSDC accession.version). Use this column exclusively if the Run is a Reference Alignment.
-In case you want to provide several sequence details, repeat the block 'Ref_Alignment.SequenceAccession' - 'Ref_Alignment.SequenceLabel' as many times as needed. </t>
   </si>
   <si>
     <t>TODO: The name or relative pathname of a run data file (e.g. path/to/files/file.fastq)
@@ -362,16 +342,65 @@
     <t>Optional (highly recommended) attributes</t>
   </si>
   <si>
-    <t>Dark grey</t>
-  </si>
-  <si>
-    <t>Ignore this column (based on multiple choice attributes)</t>
-  </si>
-  <si>
     <t>Other colours</t>
   </si>
   <si>
     <t>Repeated blocks (each with their own colour): you can add or remove as many "whole" blocks as you want to fulfil your needs, but remember to always work with complete repetitions (e.g. TAG-VALUE-UNITS columns for an attribute)</t>
+  </si>
+  <si>
+    <t>Assembly_name</t>
+  </si>
+  <si>
+    <t>Assembly_accessionVersion</t>
+  </si>
+  <si>
+    <t>SEQUENCE.Accession</t>
+  </si>
+  <si>
+    <t>SEQUENCE.Label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO:Accession of the sequence for the reference alignment in format 'Accession.version', with version being mandatory (e.g. CM000663.1). Use this column exclusively if the Run is a Reference Alignment.
+In case you want to provide several sequence details, repeat the block 'SEQUENCE.Accession' - 'SEQUENCE.Label' as many times as needed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO:  This is how Reference Sequence is labeled in submission file(s) (e.g. chr1). It is equivalent to the @SQ label in a BAM file (optional when submitted file uses INSDC accession.version). Use this column exclusively if the Run is a Reference Alignment.
+In case you want to provide several sequence details, repeat the block 'SEQUENCE.Accession' - 'SEQUENCE.Label' as many times as needed. </t>
+  </si>
+  <si>
+    <t>Light yellow</t>
+  </si>
+  <si>
+    <t>Columns related to a choice from another column (based on multiple choice attributes) - e.g. if the provided experiment's layout is PAIRED, the two related columns (PAIRED.Nominal_length and PAIRED.Nominal_sdev) will change their header's format to light yellow.</t>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Column headers that do not appear to be chosen for any metadata instance (row), and thus </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>can be ignored</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (based on multiple choice attributes)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -410,24 +439,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -485,18 +502,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFFB7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -561,65 +584,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -627,28 +653,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1009,362 +1049,362 @@
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="15.5703125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="15" customWidth="1"/>
-    <col min="11" max="12" width="8.7109375" style="5" customWidth="1"/>
-    <col min="13" max="15" width="8.7109375" style="11" customWidth="1"/>
-    <col min="16" max="17" width="15.5703125" style="17" customWidth="1"/>
-    <col min="18" max="19" width="15.5703125" style="2" customWidth="1"/>
-    <col min="20" max="21" width="15.5703125" style="17" customWidth="1"/>
-    <col min="22" max="28" width="8.7109375" style="22" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" style="24"/>
-    <col min="30" max="36" width="8.7109375" style="11" customWidth="1"/>
+    <col min="6" max="8" width="15.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="10" customWidth="1"/>
+    <col min="11" max="12" width="8.7109375" style="3" customWidth="1"/>
+    <col min="13" max="15" width="8.7109375" style="6" customWidth="1"/>
+    <col min="16" max="17" width="15.5703125" style="12" customWidth="1"/>
+    <col min="18" max="19" width="15.5703125" style="1" customWidth="1"/>
+    <col min="20" max="21" width="15.5703125" style="12" customWidth="1"/>
+    <col min="22" max="28" width="8.7109375" style="16" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" style="18"/>
+    <col min="30" max="36" width="8.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="14" t="s">
+      <c r="H1" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="V1" s="12" t="s">
+      <c r="P1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="V1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AC1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AE1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AF1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AG1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AH1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AI1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AK1" s="12" t="s">
-        <v>47</v>
+      <c r="AK1" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="X2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA2" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB2" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC2" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="AD2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="T2" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="U2" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="V2" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="W2" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="X2" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y2" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z2" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA2" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB2" s="22" t="s">
+      <c r="AK2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" s="20" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="AC2" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD2" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE2" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI2" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="M3" s="27"/>
+      <c r="M3" s="21"/>
+      <c r="Q3" s="28"/>
       <c r="R3" s="28"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="V4" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="W4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="X4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y4" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="P4" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="T4" s="17" t="s">
+      <c r="AA4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="U4" s="17" t="s">
+      <c r="AC4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="W4" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="X4" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y4" s="22" t="s">
+      <c r="AJ4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK4" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="Z4" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA4" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB4" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC4" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD4" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE4" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG4" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK4" s="11" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1405,11 +1445,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7496BB8B-87E6-472C-B92C-9113B5F6BDA6}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1419,96 +1457,104 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="32"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="33">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="34">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="34">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="38"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="B7" t="s">
         <v>76</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="32"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="38"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="B15" s="25" t="s">
         <v>84</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/templates/sequence-based-metadata/run_template.xlsx
+++ b/templates/sequence-based-metadata/run_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcasado\Documents\GitHub\ega-metadata-schema\templates\sequence-based-metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E27A30-DF0A-434F-BF07-6B348D0A3B4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B18176-B176-440C-9D4C-C3323197EAFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="95">
   <si>
     <t>Tag</t>
   </si>
@@ -342,12 +342,6 @@
     <t>Optional (highly recommended) attributes</t>
   </si>
   <si>
-    <t>Dark grey</t>
-  </si>
-  <si>
-    <t>Ignore this column (based on multiple choice attributes)</t>
-  </si>
-  <si>
     <t>Other colours</t>
   </si>
   <si>
@@ -372,6 +366,41 @@
   <si>
     <t xml:space="preserve">TODO:  This is how Reference Sequence is labeled in submission file(s) (e.g. chr1). It is equivalent to the @SQ label in a BAM file (optional when submitted file uses INSDC accession.version). Use this column exclusively if the Run is a Reference Alignment.
 In case you want to provide several sequence details, repeat the block 'SEQUENCE.Accession' - 'SEQUENCE.Label' as many times as needed. </t>
+  </si>
+  <si>
+    <t>Light yellow</t>
+  </si>
+  <si>
+    <t>Columns related to a choice from another column (based on multiple choice attributes) - e.g. if the provided experiment's layout is PAIRED, the two related columns (PAIRED.Nominal_length and PAIRED.Nominal_sdev) will change their header's format to light yellow.</t>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Column headers that do not appear to be chosen for any metadata instance (row), and thus </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>can be ignored</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (based on multiple choice attributes)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -410,7 +439,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,18 +502,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFFB7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -549,11 +584,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -598,9 +653,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -613,22 +665,30 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1025,14 +1085,14 @@
       <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>88</v>
+      <c r="H1" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>86</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>0</v>
@@ -1053,22 +1113,22 @@
         <v>2</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>14</v>
@@ -1132,7 +1192,7 @@
       <c r="D2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="30" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1166,22 +1226,22 @@
         <v>8</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U2" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="V2" s="17" t="s">
         <v>60</v>
@@ -1237,8 +1297,8 @@
         <v>68</v>
       </c>
       <c r="M3" s="21"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1385,11 +1445,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7496BB8B-87E6-472C-B92C-9113B5F6BDA6}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1399,10 +1457,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
@@ -1413,7 +1471,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="33">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -1421,7 +1479,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="34">
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -1429,7 +1487,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="34">
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -1437,7 +1495,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="35" t="s">
         <v>75</v>
       </c>
       <c r="B7" t="s">
@@ -1446,10 +1504,10 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="34"/>
+      <c r="B9" s="32"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
@@ -1460,35 +1518,43 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="25" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
